--- a/MyChecklist.xlsx
+++ b/MyChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souga\Desktop\My Subject\Git Projects\javaPracs\javaPracs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8475736B-470B-4898-9E4C-C260A59A6CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F626A9-6383-47A0-82F9-5AA449AB416C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6A6D2374-216B-4D9C-BBE5-577272BBBA08}"/>
   </bookViews>
@@ -514,7 +514,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9009165B-C12E-DF94-DD4C-64FDDE274A04}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -572,7 +572,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F0D3BC-7CF5-4E54-805B-A451EED9B0AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -630,7 +630,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC0C8C6-9612-0758-B360-3B8BBC8541CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -688,7 +688,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59213F6F-146E-CACA-CBC0-E8D18CEF921A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -746,7 +746,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FD6202-533F-EFE4-CBA0-F473F5395165}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -804,7 +804,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFBC1B4-BFAD-7579-A895-DA4A1465E9C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -862,7 +862,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E9AA36-09CF-3F64-6E87-0C2267589453}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -920,7 +920,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FD3C82-04E8-A198-ACE9-ABD69A89CC6D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -978,7 +978,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1AB7E4-A9CE-03F8-A537-62CFB82AC136}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1036,7 +1036,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6336AA-EE98-36CB-6D9F-46488AD43D4C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1094,7 +1094,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F911E2-6FA0-B3CE-B20C-D9D07FA0B76E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1152,7 +1152,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6FD079-398B-CAD0-C1B4-527E73DD9875}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1210,7 +1210,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CCF81E-4D7A-8EC4-A0BC-11683D7A0AF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1268,7 +1268,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5A78CF-46DC-B83F-1AD6-E7D815607BF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1326,7 +1326,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242ED8B8-44F1-491C-5EBE-49D0EA8D3939}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042764CC-CDDD-1ACA-A2D8-8D99D79F802A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1442,7 +1442,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176D0237-26FE-6A13-1FFA-D732F9D2C065}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1500,7 +1500,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591C3622-8BD7-0DDC-205D-8A04B1649212}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1558,7 +1558,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D18BC3-8CD2-0F95-B8DF-7426CFB994C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692FB85E-DB6C-6816-25AD-9A838E43D625}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1674,7 +1674,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1188953F-AA8A-CF17-F4CA-2ACBC2846961}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1732,7 +1732,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB878A9-4C04-B25F-2433-AE3748C9F5CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1790,7 +1790,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1211DC-7440-7C35-AB6E-F18BE3B518E4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1848,7 +1848,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F8B5794-EAA9-FC28-336F-8F2C76077391}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1906,7 +1906,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3049F5C2-81D4-226E-2FA4-A24C3A22DB14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1964,7 +1964,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B5E9F2-B8A9-5EBB-AEAA-8B5E010D7480}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2022,7 +2022,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBBE51A-FA4D-7525-2CF7-76292BC5EE75}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2080,7 +2080,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3528CC5C-7C43-AA6B-C431-33EE1A2C25A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2138,7 +2138,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6FCD59-7AF2-FE01-8D84-451CD7F8EF72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2196,7 +2196,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E7BFBF-6E1A-3C72-9922-25D2DA8BDBF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2254,7 +2254,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0993B552-F627-E9BE-4580-BBF0658BC007}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2312,7 +2312,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB33F104-27FC-696C-8A1E-C50CCBCB00A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2370,7 +2370,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED6DD1A-4ABC-A1E1-A0E7-3DF5A41AFA60}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2428,7 +2428,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E6F641-4EBE-3053-1F99-CE9AD7D5F8BD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2486,7 +2486,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA28CD10-6BDC-9B02-7557-C888056CD101}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2544,7 +2544,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4268770D-D21B-4378-1008-37C70A767B6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3574,19 +3574,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId3" name="CheckBox37">
+        <control shapeId="1027" r:id="rId3" name="CheckBox1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3594,24 +3594,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId3" name="CheckBox37"/>
+        <control shapeId="1027" r:id="rId3" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId5" name="CheckBox36">
+        <control shapeId="1028" r:id="rId5" name="CheckBox2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3619,24 +3619,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId5" name="CheckBox36"/>
+        <control shapeId="1028" r:id="rId5" name="CheckBox2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId7" name="CheckBox35">
+        <control shapeId="1030" r:id="rId7" name="CheckBox3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3644,24 +3644,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId7" name="CheckBox35"/>
+        <control shapeId="1030" r:id="rId7" name="CheckBox3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId9" name="CheckBox34">
+        <control shapeId="1031" r:id="rId9" name="CheckBox4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3669,24 +3669,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1063" r:id="rId9" name="CheckBox34"/>
+        <control shapeId="1031" r:id="rId9" name="CheckBox4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId11" name="CheckBox33">
+        <control shapeId="1032" r:id="rId11" name="CheckBox5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3694,24 +3694,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId11" name="CheckBox33"/>
+        <control shapeId="1032" r:id="rId11" name="CheckBox5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId13" name="CheckBox32">
+        <control shapeId="1035" r:id="rId13" name="CheckBox7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>55</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3719,24 +3719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId13" name="CheckBox32"/>
+        <control shapeId="1035" r:id="rId13" name="CheckBox7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId15" name="CheckBox31">
+        <control shapeId="1036" r:id="rId15" name="CheckBox8">
           <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>55</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3744,24 +3744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId15" name="CheckBox31"/>
+        <control shapeId="1036" r:id="rId15" name="CheckBox8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId17" name="CheckBox30">
+        <control shapeId="1037" r:id="rId17" name="CheckBox9">
           <controlPr defaultSize="0" autoLine="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3769,24 +3769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId17" name="CheckBox30"/>
+        <control shapeId="1037" r:id="rId17" name="CheckBox9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId19" name="CheckBox29">
+        <control shapeId="1038" r:id="rId19" name="CheckBox10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3794,24 +3794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId19" name="CheckBox29"/>
+        <control shapeId="1038" r:id="rId19" name="CheckBox10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId21" name="CheckBox28">
+        <control shapeId="1039" r:id="rId21" name="CheckBox6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>48</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3819,24 +3819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId21" name="CheckBox28"/>
+        <control shapeId="1039" r:id="rId21" name="CheckBox6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId23" name="CheckBox27">
+        <control shapeId="1040" r:id="rId23" name="CheckBox11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId24">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>48</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3844,24 +3844,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId23" name="CheckBox27"/>
+        <control shapeId="1040" r:id="rId23" name="CheckBox11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId25" name="CheckBox26">
+        <control shapeId="1041" r:id="rId25" name="CheckBox12">
           <controlPr defaultSize="0" autoLine="0" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3869,24 +3869,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId25" name="CheckBox26"/>
+        <control shapeId="1041" r:id="rId25" name="CheckBox12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId27" name="CheckBox25">
+        <control shapeId="1042" r:id="rId27" name="CheckBox13">
           <controlPr defaultSize="0" autoLine="0" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3894,24 +3894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId27" name="CheckBox25"/>
+        <control shapeId="1042" r:id="rId27" name="CheckBox13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId29" name="CheckBox24">
+        <control shapeId="1043" r:id="rId29" name="CheckBox14">
           <controlPr defaultSize="0" autoLine="0" r:id="rId30">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3919,24 +3919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId29" name="CheckBox24"/>
+        <control shapeId="1043" r:id="rId29" name="CheckBox14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId31" name="CheckBox23">
+        <control shapeId="1044" r:id="rId31" name="CheckBox15">
           <controlPr defaultSize="0" autoLine="0" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3944,24 +3944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId31" name="CheckBox23"/>
+        <control shapeId="1044" r:id="rId31" name="CheckBox15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId33" name="CheckBox22">
+        <control shapeId="1045" r:id="rId33" name="CheckBox16">
           <controlPr defaultSize="0" autoLine="0" r:id="rId34">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3969,24 +3969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId33" name="CheckBox22"/>
+        <control shapeId="1045" r:id="rId33" name="CheckBox16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId35" name="CheckBox21">
+        <control shapeId="1046" r:id="rId35" name="CheckBox17">
           <controlPr defaultSize="0" autoLine="0" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3994,24 +3994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId35" name="CheckBox21"/>
+        <control shapeId="1046" r:id="rId35" name="CheckBox17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId37" name="CheckBox20">
+        <control shapeId="1047" r:id="rId37" name="CheckBox18">
           <controlPr defaultSize="0" autoLine="0" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4019,7 +4019,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId37" name="CheckBox20"/>
+        <control shapeId="1047" r:id="rId37" name="CheckBox18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4049,19 +4049,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId41" name="CheckBox18">
+        <control shapeId="1049" r:id="rId41" name="CheckBox20">
           <controlPr defaultSize="0" autoLine="0" r:id="rId42">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4069,24 +4069,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId41" name="CheckBox18"/>
+        <control shapeId="1049" r:id="rId41" name="CheckBox20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId43" name="CheckBox17">
+        <control shapeId="1050" r:id="rId43" name="CheckBox21">
           <controlPr defaultSize="0" autoLine="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4094,24 +4094,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId43" name="CheckBox17"/>
+        <control shapeId="1050" r:id="rId43" name="CheckBox21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId45" name="CheckBox16">
+        <control shapeId="1051" r:id="rId45" name="CheckBox22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4119,24 +4119,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId45" name="CheckBox16"/>
+        <control shapeId="1051" r:id="rId45" name="CheckBox22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId47" name="CheckBox15">
+        <control shapeId="1052" r:id="rId47" name="CheckBox23">
           <controlPr defaultSize="0" autoLine="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4144,24 +4144,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId47" name="CheckBox15"/>
+        <control shapeId="1052" r:id="rId47" name="CheckBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId49" name="CheckBox14">
+        <control shapeId="1053" r:id="rId49" name="CheckBox24">
           <controlPr defaultSize="0" autoLine="0" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4169,24 +4169,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId49" name="CheckBox14"/>
+        <control shapeId="1053" r:id="rId49" name="CheckBox24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId51" name="CheckBox13">
+        <control shapeId="1054" r:id="rId51" name="CheckBox25">
           <controlPr defaultSize="0" autoLine="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4194,24 +4194,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId51" name="CheckBox13"/>
+        <control shapeId="1054" r:id="rId51" name="CheckBox25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId53" name="CheckBox12">
+        <control shapeId="1055" r:id="rId53" name="CheckBox26">
           <controlPr defaultSize="0" autoLine="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4219,24 +4219,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId53" name="CheckBox12"/>
+        <control shapeId="1055" r:id="rId53" name="CheckBox26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId55" name="CheckBox11">
+        <control shapeId="1056" r:id="rId55" name="CheckBox27">
           <controlPr defaultSize="0" autoLine="0" r:id="rId56">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>48</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4244,24 +4244,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId55" name="CheckBox11"/>
+        <control shapeId="1056" r:id="rId55" name="CheckBox27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId57" name="CheckBox6">
+        <control shapeId="1057" r:id="rId57" name="CheckBox28">
           <controlPr defaultSize="0" autoLine="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>48</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4269,24 +4269,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId57" name="CheckBox6"/>
+        <control shapeId="1057" r:id="rId57" name="CheckBox28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId59" name="CheckBox10">
+        <control shapeId="1058" r:id="rId59" name="CheckBox29">
           <controlPr defaultSize="0" autoLine="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4294,24 +4294,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId59" name="CheckBox10"/>
+        <control shapeId="1058" r:id="rId59" name="CheckBox29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId61" name="CheckBox9">
+        <control shapeId="1059" r:id="rId61" name="CheckBox30">
           <controlPr defaultSize="0" autoLine="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4319,24 +4319,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId61" name="CheckBox9"/>
+        <control shapeId="1059" r:id="rId61" name="CheckBox30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId63" name="CheckBox8">
+        <control shapeId="1060" r:id="rId63" name="CheckBox31">
           <controlPr defaultSize="0" autoLine="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>55</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4344,24 +4344,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId63" name="CheckBox8"/>
+        <control shapeId="1060" r:id="rId63" name="CheckBox31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId65" name="CheckBox7">
+        <control shapeId="1061" r:id="rId65" name="CheckBox32">
           <controlPr defaultSize="0" autoLine="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>55</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4369,24 +4369,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId65" name="CheckBox7"/>
+        <control shapeId="1061" r:id="rId65" name="CheckBox32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId67" name="CheckBox5">
+        <control shapeId="1062" r:id="rId67" name="CheckBox33">
           <controlPr defaultSize="0" autoLine="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>57</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4394,24 +4394,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId67" name="CheckBox5"/>
+        <control shapeId="1062" r:id="rId67" name="CheckBox33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId69" name="CheckBox4">
+        <control shapeId="1063" r:id="rId69" name="CheckBox34">
           <controlPr defaultSize="0" autoLine="0" r:id="rId70">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4419,24 +4419,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId69" name="CheckBox4"/>
+        <control shapeId="1063" r:id="rId69" name="CheckBox34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId71" name="CheckBox3">
+        <control shapeId="1064" r:id="rId71" name="CheckBox35">
           <controlPr defaultSize="0" autoLine="0" r:id="rId72">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>57</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4444,24 +4444,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId71" name="CheckBox3"/>
+        <control shapeId="1064" r:id="rId71" name="CheckBox35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId73" name="CheckBox2">
+        <control shapeId="1065" r:id="rId73" name="CheckBox36">
           <controlPr defaultSize="0" autoLine="0" r:id="rId74">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4469,24 +4469,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId73" name="CheckBox2"/>
+        <control shapeId="1065" r:id="rId73" name="CheckBox36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId75" name="CheckBox1">
+        <control shapeId="1066" r:id="rId75" name="CheckBox37">
           <controlPr defaultSize="0" autoLine="0" r:id="rId76">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4494,7 +4494,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId75" name="CheckBox1"/>
+        <control shapeId="1066" r:id="rId75" name="CheckBox37"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/MyChecklist.xlsx
+++ b/MyChecklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souga\Desktop\My Subject\Git Projects\javaPracs\javaPracs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F626A9-6383-47A0-82F9-5AA449AB416C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EA6367-47E0-42CA-9FF3-E836AF202F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6A6D2374-216B-4D9C-BBE5-577272BBBA08}"/>
+    <workbookView xWindow="5760" yWindow="1788" windowWidth="17280" windowHeight="9420" xr2:uid="{6A6D2374-216B-4D9C-BBE5-577272BBBA08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2902,7 +2902,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3574,19 +3574,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId3" name="CheckBox1">
+        <control shapeId="1066" r:id="rId3" name="CheckBox37">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3594,24 +3594,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId3" name="CheckBox1"/>
+        <control shapeId="1066" r:id="rId3" name="CheckBox37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId5" name="CheckBox2">
+        <control shapeId="1065" r:id="rId5" name="CheckBox36">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3619,24 +3619,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId5" name="CheckBox2"/>
+        <control shapeId="1065" r:id="rId5" name="CheckBox36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId7" name="CheckBox3">
+        <control shapeId="1064" r:id="rId7" name="CheckBox35">
           <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>57</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3644,24 +3644,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId7" name="CheckBox3"/>
+        <control shapeId="1064" r:id="rId7" name="CheckBox35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId9" name="CheckBox4">
+        <control shapeId="1063" r:id="rId9" name="CheckBox34">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>59</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3669,24 +3669,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId9" name="CheckBox4"/>
+        <control shapeId="1063" r:id="rId9" name="CheckBox34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId11" name="CheckBox5">
+        <control shapeId="1062" r:id="rId11" name="CheckBox33">
           <controlPr defaultSize="0" autoLine="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>57</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3694,24 +3694,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId11" name="CheckBox5"/>
+        <control shapeId="1062" r:id="rId11" name="CheckBox33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId13" name="CheckBox7">
+        <control shapeId="1061" r:id="rId13" name="CheckBox32">
           <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>55</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>56</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3719,24 +3719,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId13" name="CheckBox7"/>
+        <control shapeId="1061" r:id="rId13" name="CheckBox32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId15" name="CheckBox8">
+        <control shapeId="1060" r:id="rId15" name="CheckBox31">
           <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>54</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>55</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3744,24 +3744,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId15" name="CheckBox8"/>
+        <control shapeId="1060" r:id="rId15" name="CheckBox31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId17" name="CheckBox9">
+        <control shapeId="1059" r:id="rId17" name="CheckBox30">
           <controlPr defaultSize="0" autoLine="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3769,24 +3769,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId17" name="CheckBox9"/>
+        <control shapeId="1059" r:id="rId17" name="CheckBox30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId19" name="CheckBox10">
+        <control shapeId="1058" r:id="rId19" name="CheckBox29">
           <controlPr defaultSize="0" autoLine="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>50</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3794,24 +3794,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId19" name="CheckBox10"/>
+        <control shapeId="1058" r:id="rId19" name="CheckBox29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId21" name="CheckBox6">
+        <control shapeId="1057" r:id="rId21" name="CheckBox28">
           <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>48</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3819,24 +3819,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId21" name="CheckBox6"/>
+        <control shapeId="1057" r:id="rId21" name="CheckBox28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId23" name="CheckBox11">
+        <control shapeId="1056" r:id="rId23" name="CheckBox27">
           <controlPr defaultSize="0" autoLine="0" r:id="rId24">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>48</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3844,24 +3844,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId23" name="CheckBox11"/>
+        <control shapeId="1056" r:id="rId23" name="CheckBox27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId25" name="CheckBox12">
+        <control shapeId="1055" r:id="rId25" name="CheckBox26">
           <controlPr defaultSize="0" autoLine="0" r:id="rId26">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>46</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3869,24 +3869,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId25" name="CheckBox12"/>
+        <control shapeId="1055" r:id="rId25" name="CheckBox26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId27" name="CheckBox13">
+        <control shapeId="1054" r:id="rId27" name="CheckBox25">
           <controlPr defaultSize="0" autoLine="0" r:id="rId28">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3894,24 +3894,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1042" r:id="rId27" name="CheckBox13"/>
+        <control shapeId="1054" r:id="rId27" name="CheckBox25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId29" name="CheckBox14">
+        <control shapeId="1053" r:id="rId29" name="CheckBox24">
           <controlPr defaultSize="0" autoLine="0" r:id="rId30">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3919,24 +3919,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId29" name="CheckBox14"/>
+        <control shapeId="1053" r:id="rId29" name="CheckBox24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId31" name="CheckBox15">
+        <control shapeId="1052" r:id="rId31" name="CheckBox23">
           <controlPr defaultSize="0" autoLine="0" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3944,24 +3944,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId31" name="CheckBox15"/>
+        <control shapeId="1052" r:id="rId31" name="CheckBox23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId33" name="CheckBox16">
+        <control shapeId="1051" r:id="rId33" name="CheckBox22">
           <controlPr defaultSize="0" autoLine="0" r:id="rId34">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3969,24 +3969,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId33" name="CheckBox16"/>
+        <control shapeId="1051" r:id="rId33" name="CheckBox22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId35" name="CheckBox17">
+        <control shapeId="1050" r:id="rId35" name="CheckBox21">
           <controlPr defaultSize="0" autoLine="0" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>29</xdr:row>
+                <xdr:row>38</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -3994,24 +3994,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId35" name="CheckBox17"/>
+        <control shapeId="1050" r:id="rId35" name="CheckBox21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId37" name="CheckBox18">
+        <control shapeId="1049" r:id="rId37" name="CheckBox20">
           <controlPr defaultSize="0" autoLine="0" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4019,7 +4019,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId37" name="CheckBox18"/>
+        <control shapeId="1049" r:id="rId37" name="CheckBox20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4049,19 +4049,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId41" name="CheckBox20">
+        <control shapeId="1047" r:id="rId41" name="CheckBox18">
           <controlPr defaultSize="0" autoLine="0" r:id="rId42">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>33</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4069,24 +4069,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId41" name="CheckBox20"/>
+        <control shapeId="1047" r:id="rId41" name="CheckBox18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId43" name="CheckBox21">
+        <control shapeId="1046" r:id="rId43" name="CheckBox17">
           <controlPr defaultSize="0" autoLine="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>38</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4094,24 +4094,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId43" name="CheckBox21"/>
+        <control shapeId="1046" r:id="rId43" name="CheckBox17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId45" name="CheckBox22">
+        <control shapeId="1045" r:id="rId45" name="CheckBox16">
           <controlPr defaultSize="0" autoLine="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4119,24 +4119,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId45" name="CheckBox22"/>
+        <control shapeId="1045" r:id="rId45" name="CheckBox16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId47" name="CheckBox23">
+        <control shapeId="1044" r:id="rId47" name="CheckBox15">
           <controlPr defaultSize="0" autoLine="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4144,24 +4144,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId47" name="CheckBox23"/>
+        <control shapeId="1044" r:id="rId47" name="CheckBox15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId49" name="CheckBox24">
+        <control shapeId="1043" r:id="rId49" name="CheckBox14">
           <controlPr defaultSize="0" autoLine="0" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4169,24 +4169,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId49" name="CheckBox24"/>
+        <control shapeId="1043" r:id="rId49" name="CheckBox14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId51" name="CheckBox25">
+        <control shapeId="1042" r:id="rId51" name="CheckBox13">
           <controlPr defaultSize="0" autoLine="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4194,24 +4194,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId51" name="CheckBox25"/>
+        <control shapeId="1042" r:id="rId51" name="CheckBox13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId53" name="CheckBox26">
+        <control shapeId="1041" r:id="rId53" name="CheckBox12">
           <controlPr defaultSize="0" autoLine="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>46</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4219,24 +4219,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId53" name="CheckBox26"/>
+        <control shapeId="1041" r:id="rId53" name="CheckBox12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId55" name="CheckBox27">
+        <control shapeId="1040" r:id="rId55" name="CheckBox11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId56">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>48</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4244,24 +4244,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId55" name="CheckBox27"/>
+        <control shapeId="1040" r:id="rId55" name="CheckBox11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId57" name="CheckBox28">
+        <control shapeId="1039" r:id="rId57" name="CheckBox6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>48</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4269,24 +4269,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId57" name="CheckBox28"/>
+        <control shapeId="1039" r:id="rId57" name="CheckBox6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId59" name="CheckBox29">
+        <control shapeId="1038" r:id="rId59" name="CheckBox10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4294,24 +4294,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId59" name="CheckBox29"/>
+        <control shapeId="1038" r:id="rId59" name="CheckBox10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId61" name="CheckBox30">
+        <control shapeId="1037" r:id="rId61" name="CheckBox9">
           <controlPr defaultSize="0" autoLine="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>50</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4319,24 +4319,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId61" name="CheckBox30"/>
+        <control shapeId="1037" r:id="rId61" name="CheckBox9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId63" name="CheckBox31">
+        <control shapeId="1036" r:id="rId63" name="CheckBox8">
           <controlPr defaultSize="0" autoLine="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>54</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>55</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4344,24 +4344,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1060" r:id="rId63" name="CheckBox31"/>
+        <control shapeId="1036" r:id="rId63" name="CheckBox8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId65" name="CheckBox32">
+        <control shapeId="1035" r:id="rId65" name="CheckBox7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>55</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4369,24 +4369,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1061" r:id="rId65" name="CheckBox32"/>
+        <control shapeId="1035" r:id="rId65" name="CheckBox7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId67" name="CheckBox33">
+        <control shapeId="1032" r:id="rId67" name="CheckBox5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>56</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4394,24 +4394,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1062" r:id="rId67" name="CheckBox33"/>
+        <control shapeId="1032" r:id="rId67" name="CheckBox5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId69" name="CheckBox34">
+        <control shapeId="1031" r:id="rId69" name="CheckBox4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId70">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>59</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4419,24 +4419,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1063" r:id="rId69" name="CheckBox34"/>
+        <control shapeId="1031" r:id="rId69" name="CheckBox4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId71" name="CheckBox35">
+        <control shapeId="1030" r:id="rId71" name="CheckBox3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId72">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>57</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4444,24 +4444,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1064" r:id="rId71" name="CheckBox35"/>
+        <control shapeId="1030" r:id="rId71" name="CheckBox3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId73" name="CheckBox36">
+        <control shapeId="1028" r:id="rId73" name="CheckBox2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId74">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4469,24 +4469,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1065" r:id="rId73" name="CheckBox36"/>
+        <control shapeId="1028" r:id="rId73" name="CheckBox2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId75" name="CheckBox37">
+        <control shapeId="1027" r:id="rId75" name="CheckBox1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId76">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>274320</xdr:colOff>
-                <xdr:row>63</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>15240</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>464820</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4494,7 +4494,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1066" r:id="rId75" name="CheckBox37"/>
+        <control shapeId="1027" r:id="rId75" name="CheckBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
